--- a/problem_015/problem_15_analysis.xlsx
+++ b/problem_015/problem_15_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2x2" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="4x4" sheetId="4" r:id="rId3"/>
     <sheet name="5x5" sheetId="5" r:id="rId4"/>
     <sheet name="6x6" sheetId="1" r:id="rId5"/>
+    <sheet name="compare" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1285">
   <si>
     <t>0b111111</t>
   </si>
@@ -3080,36 +3081,6 @@
     <t>0b11110000</t>
   </si>
   <si>
-    <t>nbr</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>Interpreter</t>
-  </si>
-  <si>
-    <t>Reinitialized</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
     <t>0b11111</t>
   </si>
   <si>
@@ -3864,14 +3835,61 @@
   </si>
   <si>
     <t>0b1111010000</t>
+  </si>
+  <si>
+    <t>0b011010</t>
+  </si>
+  <si>
+    <t>0b010110</t>
+  </si>
+  <si>
+    <t>0b010101</t>
+  </si>
+  <si>
+    <t>0b011001</t>
+  </si>
+  <si>
+    <t>0b001101</t>
+  </si>
+  <si>
+    <t>0b010011</t>
+  </si>
+  <si>
+    <t>0b001011</t>
+  </si>
+  <si>
+    <t>0b011100</t>
+  </si>
+  <si>
+    <t>0b001110</t>
+  </si>
+  <si>
+    <t>0b000111</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>4x4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3899,8 +3917,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4205,7 +4226,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4265,10 +4286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4280,11 +4301,14 @@
       <c r="B1" t="s">
         <v>930</v>
       </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
       <c r="D1">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>930</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4294,11 +4318,14 @@
       <c r="B2" t="s">
         <v>931</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>933</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4308,11 +4335,14 @@
       <c r="B3" t="s">
         <v>932</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>939</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4322,11 +4352,14 @@
       <c r="B4" t="s">
         <v>933</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>949</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4336,11 +4369,14 @@
       <c r="B5" t="s">
         <v>934</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>931</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4350,11 +4386,14 @@
       <c r="B6" t="s">
         <v>935</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>934</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4364,11 +4403,14 @@
       <c r="B7" t="s">
         <v>936</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>940</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4378,11 +4420,14 @@
       <c r="B8" t="s">
         <v>937</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>932</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4392,11 +4437,14 @@
       <c r="B9" t="s">
         <v>938</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>937</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4406,11 +4454,14 @@
       <c r="B10" t="s">
         <v>939</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>946</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4421,10 +4472,10 @@
         <v>940</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4435,10 +4486,10 @@
         <v>941</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4449,10 +4500,10 @@
         <v>942</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4463,10 +4514,10 @@
         <v>943</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4477,10 +4528,10 @@
         <v>944</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4491,10 +4542,10 @@
         <v>945</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4505,10 +4556,10 @@
         <v>946</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4519,10 +4570,10 @@
         <v>947</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -4533,10 +4584,10 @@
         <v>948</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4547,13 +4598,22 @@
         <v>949</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>948</v>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f>SUM(C1:C10)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="D1:E20">
+    <sortCondition ref="D1:D20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4562,11 +4622,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -5135,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5148,7 +5211,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5156,7 +5219,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5164,7 +5227,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5172,7 +5235,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5180,7 +5243,7 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5188,7 +5251,7 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5196,7 +5259,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5204,7 +5267,7 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5212,7 +5275,7 @@
         <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5220,7 +5283,7 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5228,7 +5291,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5236,7 +5299,7 @@
         <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5244,7 +5307,7 @@
         <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5252,7 +5315,7 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5260,7 +5323,7 @@
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5268,7 +5331,7 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5276,7 +5339,7 @@
         <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5284,7 +5347,7 @@
         <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5292,7 +5355,7 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5300,7 +5363,7 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5308,7 +5371,7 @@
         <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5316,7 +5379,7 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5324,7 +5387,7 @@
         <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5332,7 +5395,7 @@
         <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5340,7 +5403,7 @@
         <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5348,7 +5411,7 @@
         <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5356,7 +5419,7 @@
         <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5364,7 +5427,7 @@
         <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5372,7 +5435,7 @@
         <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5380,7 +5443,7 @@
         <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5388,7 +5451,7 @@
         <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5396,7 +5459,7 @@
         <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5404,7 +5467,7 @@
         <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5412,7 +5475,7 @@
         <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5420,7 +5483,7 @@
         <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5428,7 +5491,7 @@
         <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5436,7 +5499,7 @@
         <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5444,7 +5507,7 @@
         <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5452,7 +5515,7 @@
         <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5460,7 +5523,7 @@
         <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5468,7 +5531,7 @@
         <v>211</v>
       </c>
       <c r="B41" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5476,7 +5539,7 @@
         <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5484,7 +5547,7 @@
         <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5492,7 +5555,7 @@
         <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5500,7 +5563,7 @@
         <v>218</v>
       </c>
       <c r="B45" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5508,7 +5571,7 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5516,7 +5579,7 @@
         <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5524,7 +5587,7 @@
         <v>229</v>
       </c>
       <c r="B48" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5532,7 +5595,7 @@
         <v>230</v>
       </c>
       <c r="B49" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5540,7 +5603,7 @@
         <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5548,7 +5611,7 @@
         <v>234</v>
       </c>
       <c r="B51" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5556,7 +5619,7 @@
         <v>236</v>
       </c>
       <c r="B52" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5564,7 +5627,7 @@
         <v>241</v>
       </c>
       <c r="B53" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5572,7 +5635,7 @@
         <v>242</v>
       </c>
       <c r="B54" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5580,7 +5643,7 @@
         <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5588,7 +5651,7 @@
         <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5596,7 +5659,7 @@
         <v>271</v>
       </c>
       <c r="B57" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5604,7 +5667,7 @@
         <v>279</v>
       </c>
       <c r="B58" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5612,7 +5675,7 @@
         <v>283</v>
       </c>
       <c r="B59" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -5620,7 +5683,7 @@
         <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5628,7 +5691,7 @@
         <v>286</v>
       </c>
       <c r="B61" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5636,7 +5699,7 @@
         <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -5644,7 +5707,7 @@
         <v>299</v>
       </c>
       <c r="B63" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -5652,7 +5715,7 @@
         <v>301</v>
       </c>
       <c r="B64" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5660,7 +5723,7 @@
         <v>302</v>
       </c>
       <c r="B65" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5668,7 +5731,7 @@
         <v>307</v>
       </c>
       <c r="B66" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5676,7 +5739,7 @@
         <v>309</v>
       </c>
       <c r="B67" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5684,7 +5747,7 @@
         <v>310</v>
       </c>
       <c r="B68" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5692,7 +5755,7 @@
         <v>313</v>
       </c>
       <c r="B69" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5700,7 +5763,7 @@
         <v>314</v>
       </c>
       <c r="B70" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -5708,7 +5771,7 @@
         <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5716,7 +5779,7 @@
         <v>327</v>
       </c>
       <c r="B72" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5724,7 +5787,7 @@
         <v>331</v>
       </c>
       <c r="B73" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5732,7 +5795,7 @@
         <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5740,7 +5803,7 @@
         <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5748,7 +5811,7 @@
         <v>339</v>
       </c>
       <c r="B76" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5756,7 +5819,7 @@
         <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5764,7 +5827,7 @@
         <v>342</v>
       </c>
       <c r="B78" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5772,7 +5835,7 @@
         <v>345</v>
       </c>
       <c r="B79" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5780,7 +5843,7 @@
         <v>346</v>
       </c>
       <c r="B80" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5788,7 +5851,7 @@
         <v>348</v>
       </c>
       <c r="B81" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5796,7 +5859,7 @@
         <v>355</v>
       </c>
       <c r="B82" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5804,7 +5867,7 @@
         <v>357</v>
       </c>
       <c r="B83" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -5812,7 +5875,7 @@
         <v>358</v>
       </c>
       <c r="B84" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5820,7 +5883,7 @@
         <v>361</v>
       </c>
       <c r="B85" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -5828,7 +5891,7 @@
         <v>362</v>
       </c>
       <c r="B86" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -5836,7 +5899,7 @@
         <v>364</v>
       </c>
       <c r="B87" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -5844,7 +5907,7 @@
         <v>369</v>
       </c>
       <c r="B88" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -5852,7 +5915,7 @@
         <v>370</v>
       </c>
       <c r="B89" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -5860,7 +5923,7 @@
         <v>372</v>
       </c>
       <c r="B90" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5868,7 +5931,7 @@
         <v>376</v>
       </c>
       <c r="B91" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5876,7 +5939,7 @@
         <v>391</v>
       </c>
       <c r="B92" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5884,7 +5947,7 @@
         <v>395</v>
       </c>
       <c r="B93" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5892,7 +5955,7 @@
         <v>397</v>
       </c>
       <c r="B94" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5900,7 +5963,7 @@
         <v>398</v>
       </c>
       <c r="B95" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5908,7 +5971,7 @@
         <v>403</v>
       </c>
       <c r="B96" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5916,7 +5979,7 @@
         <v>405</v>
       </c>
       <c r="B97" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -5924,7 +5987,7 @@
         <v>406</v>
       </c>
       <c r="B98" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5932,7 +5995,7 @@
         <v>409</v>
       </c>
       <c r="B99" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -5940,7 +6003,7 @@
         <v>410</v>
       </c>
       <c r="B100" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5948,7 +6011,7 @@
         <v>412</v>
       </c>
       <c r="B101" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5956,7 +6019,7 @@
         <v>419</v>
       </c>
       <c r="B102" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5964,7 +6027,7 @@
         <v>421</v>
       </c>
       <c r="B103" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5972,7 +6035,7 @@
         <v>422</v>
       </c>
       <c r="B104" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -5980,7 +6043,7 @@
         <v>425</v>
       </c>
       <c r="B105" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -5988,7 +6051,7 @@
         <v>426</v>
       </c>
       <c r="B106" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5996,7 +6059,7 @@
         <v>428</v>
       </c>
       <c r="B107" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -6004,7 +6067,7 @@
         <v>433</v>
       </c>
       <c r="B108" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -6012,7 +6075,7 @@
         <v>434</v>
       </c>
       <c r="B109" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -6020,7 +6083,7 @@
         <v>436</v>
       </c>
       <c r="B110" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -6028,7 +6091,7 @@
         <v>440</v>
       </c>
       <c r="B111" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -6036,7 +6099,7 @@
         <v>451</v>
       </c>
       <c r="B112" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -6044,7 +6107,7 @@
         <v>453</v>
       </c>
       <c r="B113" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -6052,7 +6115,7 @@
         <v>454</v>
       </c>
       <c r="B114" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -6060,7 +6123,7 @@
         <v>457</v>
       </c>
       <c r="B115" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -6068,7 +6131,7 @@
         <v>458</v>
       </c>
       <c r="B116" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -6076,7 +6139,7 @@
         <v>460</v>
       </c>
       <c r="B117" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -6084,7 +6147,7 @@
         <v>465</v>
       </c>
       <c r="B118" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -6092,7 +6155,7 @@
         <v>466</v>
       </c>
       <c r="B119" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -6100,7 +6163,7 @@
         <v>468</v>
       </c>
       <c r="B120" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -6108,7 +6171,7 @@
         <v>472</v>
       </c>
       <c r="B121" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -6116,7 +6179,7 @@
         <v>481</v>
       </c>
       <c r="B122" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -6124,7 +6187,7 @@
         <v>482</v>
       </c>
       <c r="B123" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -6132,7 +6195,7 @@
         <v>484</v>
       </c>
       <c r="B124" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -6140,7 +6203,7 @@
         <v>488</v>
       </c>
       <c r="B125" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -6148,7 +6211,7 @@
         <v>496</v>
       </c>
       <c r="B126" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -6156,7 +6219,7 @@
         <v>527</v>
       </c>
       <c r="B127" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -6164,7 +6227,7 @@
         <v>535</v>
       </c>
       <c r="B128" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -6172,7 +6235,7 @@
         <v>539</v>
       </c>
       <c r="B129" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -6180,7 +6243,7 @@
         <v>541</v>
       </c>
       <c r="B130" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -6188,7 +6251,7 @@
         <v>542</v>
       </c>
       <c r="B131" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -6196,7 +6259,7 @@
         <v>551</v>
       </c>
       <c r="B132" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -6204,7 +6267,7 @@
         <v>555</v>
       </c>
       <c r="B133" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -6212,7 +6275,7 @@
         <v>557</v>
       </c>
       <c r="B134" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -6220,7 +6283,7 @@
         <v>558</v>
       </c>
       <c r="B135" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -6228,7 +6291,7 @@
         <v>563</v>
       </c>
       <c r="B136" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -6236,7 +6299,7 @@
         <v>565</v>
       </c>
       <c r="B137" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -6244,7 +6307,7 @@
         <v>566</v>
       </c>
       <c r="B138" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -6252,7 +6315,7 @@
         <v>569</v>
       </c>
       <c r="B139" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -6260,7 +6323,7 @@
         <v>570</v>
       </c>
       <c r="B140" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -6268,7 +6331,7 @@
         <v>572</v>
       </c>
       <c r="B141" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -6276,7 +6339,7 @@
         <v>583</v>
       </c>
       <c r="B142" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -6284,7 +6347,7 @@
         <v>587</v>
       </c>
       <c r="B143" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -6292,7 +6355,7 @@
         <v>589</v>
       </c>
       <c r="B144" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -6300,7 +6363,7 @@
         <v>590</v>
       </c>
       <c r="B145" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -6308,7 +6371,7 @@
         <v>595</v>
       </c>
       <c r="B146" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -6316,7 +6379,7 @@
         <v>597</v>
       </c>
       <c r="B147" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -6324,7 +6387,7 @@
         <v>598</v>
       </c>
       <c r="B148" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -6332,7 +6395,7 @@
         <v>601</v>
       </c>
       <c r="B149" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -6340,7 +6403,7 @@
         <v>602</v>
       </c>
       <c r="B150" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -6348,7 +6411,7 @@
         <v>604</v>
       </c>
       <c r="B151" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -6356,7 +6419,7 @@
         <v>611</v>
       </c>
       <c r="B152" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -6364,7 +6427,7 @@
         <v>613</v>
       </c>
       <c r="B153" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -6372,7 +6435,7 @@
         <v>614</v>
       </c>
       <c r="B154" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -6380,7 +6443,7 @@
         <v>617</v>
       </c>
       <c r="B155" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -6388,7 +6451,7 @@
         <v>618</v>
       </c>
       <c r="B156" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -6396,7 +6459,7 @@
         <v>620</v>
       </c>
       <c r="B157" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -6404,7 +6467,7 @@
         <v>625</v>
       </c>
       <c r="B158" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -6412,7 +6475,7 @@
         <v>626</v>
       </c>
       <c r="B159" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -6420,7 +6483,7 @@
         <v>628</v>
       </c>
       <c r="B160" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -6428,7 +6491,7 @@
         <v>632</v>
       </c>
       <c r="B161" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -6436,7 +6499,7 @@
         <v>647</v>
       </c>
       <c r="B162" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -6444,7 +6507,7 @@
         <v>651</v>
       </c>
       <c r="B163" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -6452,7 +6515,7 @@
         <v>653</v>
       </c>
       <c r="B164" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -6460,7 +6523,7 @@
         <v>654</v>
       </c>
       <c r="B165" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -6468,7 +6531,7 @@
         <v>659</v>
       </c>
       <c r="B166" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -6476,7 +6539,7 @@
         <v>661</v>
       </c>
       <c r="B167" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -6484,7 +6547,7 @@
         <v>662</v>
       </c>
       <c r="B168" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -6492,7 +6555,7 @@
         <v>665</v>
       </c>
       <c r="B169" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -6500,7 +6563,7 @@
         <v>666</v>
       </c>
       <c r="B170" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -6508,7 +6571,7 @@
         <v>668</v>
       </c>
       <c r="B171" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -6516,7 +6579,7 @@
         <v>675</v>
       </c>
       <c r="B172" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -6524,7 +6587,7 @@
         <v>677</v>
       </c>
       <c r="B173" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -6532,7 +6595,7 @@
         <v>678</v>
       </c>
       <c r="B174" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -6540,7 +6603,7 @@
         <v>681</v>
       </c>
       <c r="B175" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -6548,7 +6611,7 @@
         <v>682</v>
       </c>
       <c r="B176" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -6556,7 +6619,7 @@
         <v>684</v>
       </c>
       <c r="B177" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -6564,7 +6627,7 @@
         <v>689</v>
       </c>
       <c r="B178" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -6572,7 +6635,7 @@
         <v>690</v>
       </c>
       <c r="B179" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -6580,7 +6643,7 @@
         <v>692</v>
       </c>
       <c r="B180" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -6588,7 +6651,7 @@
         <v>696</v>
       </c>
       <c r="B181" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -6596,7 +6659,7 @@
         <v>707</v>
       </c>
       <c r="B182" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -6604,7 +6667,7 @@
         <v>709</v>
       </c>
       <c r="B183" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -6612,7 +6675,7 @@
         <v>710</v>
       </c>
       <c r="B184" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -6620,7 +6683,7 @@
         <v>713</v>
       </c>
       <c r="B185" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -6628,7 +6691,7 @@
         <v>714</v>
       </c>
       <c r="B186" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -6636,7 +6699,7 @@
         <v>716</v>
       </c>
       <c r="B187" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -6644,7 +6707,7 @@
         <v>721</v>
       </c>
       <c r="B188" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -6652,7 +6715,7 @@
         <v>722</v>
       </c>
       <c r="B189" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -6660,7 +6723,7 @@
         <v>724</v>
       </c>
       <c r="B190" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -6668,7 +6731,7 @@
         <v>728</v>
       </c>
       <c r="B191" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -6676,7 +6739,7 @@
         <v>737</v>
       </c>
       <c r="B192" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -6684,7 +6747,7 @@
         <v>738</v>
       </c>
       <c r="B193" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -6692,7 +6755,7 @@
         <v>740</v>
       </c>
       <c r="B194" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -6700,7 +6763,7 @@
         <v>744</v>
       </c>
       <c r="B195" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -6708,7 +6771,7 @@
         <v>752</v>
       </c>
       <c r="B196" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -6716,7 +6779,7 @@
         <v>775</v>
       </c>
       <c r="B197" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -6724,7 +6787,7 @@
         <v>779</v>
       </c>
       <c r="B198" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -6732,7 +6795,7 @@
         <v>781</v>
       </c>
       <c r="B199" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -6740,7 +6803,7 @@
         <v>782</v>
       </c>
       <c r="B200" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -6748,7 +6811,7 @@
         <v>787</v>
       </c>
       <c r="B201" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -6756,7 +6819,7 @@
         <v>789</v>
       </c>
       <c r="B202" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -6764,7 +6827,7 @@
         <v>790</v>
       </c>
       <c r="B203" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -6772,7 +6835,7 @@
         <v>793</v>
       </c>
       <c r="B204" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -6780,7 +6843,7 @@
         <v>794</v>
       </c>
       <c r="B205" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -6788,7 +6851,7 @@
         <v>796</v>
       </c>
       <c r="B206" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -6796,7 +6859,7 @@
         <v>803</v>
       </c>
       <c r="B207" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -6804,7 +6867,7 @@
         <v>805</v>
       </c>
       <c r="B208" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -6812,7 +6875,7 @@
         <v>806</v>
       </c>
       <c r="B209" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -6820,7 +6883,7 @@
         <v>809</v>
       </c>
       <c r="B210" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -6828,7 +6891,7 @@
         <v>810</v>
       </c>
       <c r="B211" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -6836,7 +6899,7 @@
         <v>812</v>
       </c>
       <c r="B212" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -6844,7 +6907,7 @@
         <v>817</v>
       </c>
       <c r="B213" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -6852,7 +6915,7 @@
         <v>818</v>
       </c>
       <c r="B214" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -6860,7 +6923,7 @@
         <v>820</v>
       </c>
       <c r="B215" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -6868,7 +6931,7 @@
         <v>824</v>
       </c>
       <c r="B216" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -6876,7 +6939,7 @@
         <v>835</v>
       </c>
       <c r="B217" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -6884,7 +6947,7 @@
         <v>837</v>
       </c>
       <c r="B218" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -6892,7 +6955,7 @@
         <v>838</v>
       </c>
       <c r="B219" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -6900,7 +6963,7 @@
         <v>841</v>
       </c>
       <c r="B220" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -6908,7 +6971,7 @@
         <v>842</v>
       </c>
       <c r="B221" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -6916,7 +6979,7 @@
         <v>844</v>
       </c>
       <c r="B222" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -6924,7 +6987,7 @@
         <v>849</v>
       </c>
       <c r="B223" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -6932,7 +6995,7 @@
         <v>850</v>
       </c>
       <c r="B224" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -6940,7 +7003,7 @@
         <v>852</v>
       </c>
       <c r="B225" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -6948,7 +7011,7 @@
         <v>856</v>
       </c>
       <c r="B226" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -6956,7 +7019,7 @@
         <v>865</v>
       </c>
       <c r="B227" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -6964,7 +7027,7 @@
         <v>866</v>
       </c>
       <c r="B228" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -6972,7 +7035,7 @@
         <v>868</v>
       </c>
       <c r="B229" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -6980,7 +7043,7 @@
         <v>872</v>
       </c>
       <c r="B230" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -6988,7 +7051,7 @@
         <v>880</v>
       </c>
       <c r="B231" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -6996,7 +7059,7 @@
         <v>899</v>
       </c>
       <c r="B232" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -7004,7 +7067,7 @@
         <v>901</v>
       </c>
       <c r="B233" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -7012,7 +7075,7 @@
         <v>902</v>
       </c>
       <c r="B234" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -7020,7 +7083,7 @@
         <v>905</v>
       </c>
       <c r="B235" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -7028,7 +7091,7 @@
         <v>906</v>
       </c>
       <c r="B236" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -7036,7 +7099,7 @@
         <v>908</v>
       </c>
       <c r="B237" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -7044,7 +7107,7 @@
         <v>913</v>
       </c>
       <c r="B238" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -7052,7 +7115,7 @@
         <v>914</v>
       </c>
       <c r="B239" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -7060,2215 +7123,109 @@
         <v>916</v>
       </c>
       <c r="B240" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>920</v>
       </c>
       <c r="B241" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>929</v>
       </c>
       <c r="B242" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>930</v>
       </c>
       <c r="B243" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>932</v>
       </c>
       <c r="B244" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>936</v>
       </c>
       <c r="B245" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>944</v>
       </c>
       <c r="B246" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>961</v>
       </c>
       <c r="B247" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>962</v>
       </c>
       <c r="B248" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>964</v>
       </c>
       <c r="B249" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>968</v>
       </c>
       <c r="B250" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>976</v>
       </c>
       <c r="B251" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>992</v>
       </c>
       <c r="B252" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B253" t="s">
         <v>1021</v>
       </c>
-      <c r="C253" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D253">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B257">
-        <v>5</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D257">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C259">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C261">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <f>2^10-2^5</f>
         <v>992</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262">
-        <v>31</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>47</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>55</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>59</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>61</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267">
-        <v>62</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>79</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>87</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>91</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>93</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272">
-        <v>94</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273">
-        <v>103</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>107</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>109</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>110</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>115</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278">
-        <v>117</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279">
-        <v>118</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>121</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281">
-        <v>122</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>124</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>143</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>151</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>155</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>157</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287">
-        <v>158</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288">
-        <v>167</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>171</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>173</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>174</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>179</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>181</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>182</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>185</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>186</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>188</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>199</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>203</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>205</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>206</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>211</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>213</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>214</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305">
-        <v>217</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306">
-        <v>218</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307">
-        <v>220</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308">
-        <v>227</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309">
-        <v>229</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310">
-        <v>230</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311">
-        <v>233</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312">
-        <v>234</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313">
-        <v>236</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314">
-        <v>241</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315">
-        <v>242</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316">
-        <v>244</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317">
-        <v>248</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318">
-        <v>271</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319">
-        <v>279</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320">
-        <v>283</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321">
-        <v>285</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322">
-        <v>286</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323">
-        <v>295</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324">
-        <v>299</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325">
-        <v>301</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326">
-        <v>302</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327">
-        <v>307</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328">
-        <v>309</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329">
-        <v>310</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330">
-        <v>313</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331">
-        <v>314</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332">
-        <v>316</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333">
-        <v>327</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334">
-        <v>331</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335">
-        <v>333</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336">
-        <v>334</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337">
-        <v>339</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338">
-        <v>341</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339">
-        <v>342</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340">
-        <v>345</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341">
-        <v>346</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342">
-        <v>348</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343">
-        <v>355</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344">
-        <v>357</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345">
-        <v>358</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346">
-        <v>361</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347">
-        <v>362</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348">
-        <v>364</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349">
-        <v>369</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350">
-        <v>370</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351">
-        <v>372</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>376</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353">
-        <v>391</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354">
-        <v>395</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355">
-        <v>397</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356">
-        <v>398</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357">
-        <v>403</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358">
-        <v>405</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359">
-        <v>406</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360">
-        <v>409</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361">
-        <v>410</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362">
-        <v>412</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363">
-        <v>419</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364">
-        <v>421</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365">
-        <v>422</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366">
-        <v>425</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367">
-        <v>426</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368">
-        <v>428</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369">
-        <v>433</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>434</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>436</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>440</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>451</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>453</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>454</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>457</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>458</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>460</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>465</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>466</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>468</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382">
-        <v>472</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383">
-        <v>481</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384">
-        <v>482</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385">
-        <v>484</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386">
-        <v>488</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387">
-        <v>496</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388">
-        <v>527</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389">
-        <v>535</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390">
-        <v>539</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391">
-        <v>541</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392">
-        <v>542</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393">
-        <v>551</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394">
-        <v>555</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395">
-        <v>557</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396">
-        <v>558</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397">
-        <v>563</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398">
-        <v>565</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399">
-        <v>566</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400">
-        <v>569</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401">
-        <v>570</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>572</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>583</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404">
-        <v>587</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405">
-        <v>589</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406">
-        <v>590</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>595</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408">
-        <v>597</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>598</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>601</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411">
-        <v>602</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412">
-        <v>604</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413">
-        <v>611</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414">
-        <v>613</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415">
-        <v>614</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416">
-        <v>617</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>618</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418">
-        <v>620</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419">
-        <v>625</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420">
-        <v>626</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>628</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>632</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423">
-        <v>647</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>651</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425">
-        <v>653</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426">
-        <v>654</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427">
-        <v>659</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428">
-        <v>661</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>662</v>
-      </c>
-      <c r="B429" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430">
-        <v>665</v>
-      </c>
-      <c r="B430" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>666</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432">
-        <v>668</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433">
-        <v>675</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>677</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435">
-        <v>678</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436">
-        <v>681</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437">
-        <v>682</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438">
-        <v>684</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439">
-        <v>689</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440">
-        <v>690</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441">
-        <v>692</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442">
-        <v>696</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443">
-        <v>707</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444">
-        <v>709</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445">
-        <v>710</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446">
-        <v>713</v>
-      </c>
-      <c r="B446" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447">
-        <v>714</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448">
-        <v>716</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449">
-        <v>721</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450">
-        <v>722</v>
-      </c>
-      <c r="B450" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451">
-        <v>724</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452">
-        <v>728</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453">
-        <v>737</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454">
-        <v>738</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455">
-        <v>740</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456">
-        <v>744</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457">
-        <v>752</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458">
-        <v>775</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459">
-        <v>779</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460">
-        <v>781</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461">
-        <v>782</v>
-      </c>
-      <c r="B461" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462">
-        <v>787</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463">
-        <v>789</v>
-      </c>
-      <c r="B463" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464">
-        <v>790</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465">
-        <v>793</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466">
-        <v>794</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467">
-        <v>796</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468">
-        <v>803</v>
-      </c>
-      <c r="B468" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469">
-        <v>805</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470">
-        <v>806</v>
-      </c>
-      <c r="B470" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471">
-        <v>809</v>
-      </c>
-      <c r="B471" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472">
-        <v>810</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473">
-        <v>812</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474">
-        <v>817</v>
-      </c>
-      <c r="B474" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475">
-        <v>818</v>
-      </c>
-      <c r="B475" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476">
-        <v>820</v>
-      </c>
-      <c r="B476" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477">
-        <v>824</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478">
-        <v>835</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479">
-        <v>837</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480">
-        <v>838</v>
-      </c>
-      <c r="B480" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481">
-        <v>841</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482">
-        <v>842</v>
-      </c>
-      <c r="B482" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483">
-        <v>844</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484">
-        <v>849</v>
-      </c>
-      <c r="B484" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485">
-        <v>850</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486">
-        <v>852</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487">
-        <v>856</v>
-      </c>
-      <c r="B487" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488">
-        <v>865</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489">
-        <v>866</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490">
-        <v>868</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491">
-        <v>872</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492">
-        <v>880</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493">
-        <v>899</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494">
-        <v>901</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495">
-        <v>902</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496">
-        <v>905</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497">
-        <v>906</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498">
-        <v>908</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499">
-        <v>913</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500">
-        <v>914</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501">
-        <v>916</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502">
-        <v>920</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503">
-        <v>929</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504">
-        <v>930</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505">
-        <v>932</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506">
-        <v>936</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507">
-        <v>944</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508">
-        <v>961</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509">
-        <v>962</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510">
-        <v>964</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511">
-        <v>968</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512">
-        <v>976</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513">
-        <v>992</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -9280,7 +7237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B924"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A896" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -16684,4 +14641,832 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>A3-A2</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <f>C3-C2</f>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <f>E3-E2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>A4-A3</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D21" si="0">C4-C3</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="1">E4-E3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>A5-A4</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>A6-A5</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <f>A7-A6</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>57</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>78</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>86</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>90</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>99</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>101</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>102</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>105</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>106</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>108</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>113</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>114</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>116</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>135</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>139</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>141</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>142</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>147</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>149</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>153</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>154</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>156</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>163</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>165</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>166</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>169</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>170</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>172</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>177</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>178</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>180</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>184</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>195</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>197</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>198</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>201</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>202</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>204</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>209</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>210</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>212</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>216</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>225</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>226</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F71" si="2">E68-E67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>228</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>232</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>240</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>